--- a/tests/data/output/一级报告详情测试用例-12001_result.xlsx
+++ b/tests/data/output/一级报告详情测试用例-12001_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="240">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -639,7 +639,7 @@
     <t>anti_apply_other_3m=5</t>
   </si>
   <si>
-    <t>anti_apply_other_3m=10</t>
+    <t>anti_apply_other_3m=12</t>
   </si>
   <si>
     <t>user_name;
@@ -650,172 +650,169 @@
     <t>true</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>{"user_name":"林玉","id_card_no":"411702193612045077","phone":"13839092211"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张丽华","id_card_no":"620901197106223804","phone":"18241954290"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张秀梅","id_card_no":"500108199511203148","phone":"18795079471"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"刘柳","id_card_no":"512081196808168170","phone":"13618444050"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"黄秀华","id_card_no":"530325196511096839","phone":"15761111739"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"韩红梅","id_card_no":"150525197801038404","phone":"15900208020"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"姜俊","id_card_no":"530325197502047992","phone":"18884118640"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"周静","id_card_no":"15020219341112333X","phone":"18164928903"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"韦刚","id_card_no":"350426196304169757","phone":"13197485015"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王莹","id_card_no":"530824200011278337","phone":"13113747012"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"雷秀芳","id_card_no":"510524193702165240","phone":"13856126550"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张东","id_card_no":"370983199805031379","phone":"15624169214"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"陆博","id_card_no":"511725196906020512","phone":"13000775745"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"马帅","id_card_no":"420682195712276637","phone":"15693278166"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李彬","id_card_no":"13118219670831621X","phone":"15296930646"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"宁桂芝","id_card_no":"652822198904220892","phone":"14745995491"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"蒋雪梅","id_card_no":"430121199009160691","phone":"15335476087"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张秀芳","id_card_no":"450802200012031899","phone":"18012519318"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"邓超","id_card_no":"13010019940508363X","phone":"13323517148"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"杨明","id_card_no":"653224194706089152","phone":"15903361661"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"段涛","id_card_no":"45030219551008903X","phone":"14702996453"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"杨瑜","id_card_no":"230202198708230550","phone":"14599779800"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"刘颖","id_card_no":"371702195003089468","phone":"18971352133"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"孙红梅","id_card_no":"130524193708124174","phone":"15982597710"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"许莉","id_card_no":"330104193610039633","phone":"15744191076"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张冬梅","id_card_no":"420304199907154464","phone":"18536774910"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"朱丽华","id_card_no":"410622194808035384","phone":"18104954090"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"饶林","id_card_no":"53250019880214628X","phone":"13480124048"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"戴丽","id_card_no":"131124195903139863","phone":"14599023693"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"路静","id_card_no":"140224196705176373","phone":"18529028881"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王建华","id_card_no":"350802193401145447","phone":"13295778139"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"郭淑兰","id_card_no":"330800197110154046","phone":"18584334935"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"金平","id_card_no":"520622198711234137","phone":"18888403682"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"陈俊","id_card_no":"350525196809257145","phone":"15387681760"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"陈坤","id_card_no":"350426193603176486","phone":"13105988061"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"段晶","id_card_no":"621023195410274551","phone":"15166786295"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"陈桂珍","id_card_no":"63000019890103232X","phone":"15330938737"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"林红","id_card_no":"320600198909222507","phone":"13557842114"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李秀芳","id_card_no":"431103194404218983","phone":"14515517638"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王平","id_card_no":"450100196508199783","phone":"13911600032"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"江丽华","id_card_no":"542122196906224106","phone":"13371159750"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"孟秀英","id_card_no":"610526197903057216","phone":"15981751703"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张雪梅","id_card_no":"450107195111064370","phone":"13470082288"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"周红梅","id_card_no":"61042619550517202X","phone":"13418583712"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王秀芳","id_card_no":"211001199601174856","phone":"15788330023"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"郝宁","id_card_no":"533323199710122829","phone":"15016054992"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"陈琴","id_card_no":"431227197907302474","phone":"15164694886"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李丹丹","id_card_no":"532626193801235500","phone":"18245521224"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王秀华","id_card_no":"652801198103126431","phone":"15982909394"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"郑芳","id_card_no":"533103198704128633","phone":"18573875652"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李明","id_card_no":"51041119330319731X","phone":"13716331365"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"周柳","id_card_no":"140302197807238290","phone":"13312850936"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"马玉兰","id_card_no":"429000199010145383","phone":"13708529204"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"黎凤英","id_card_no":"610201196207318111","phone":"15824010045"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李玉兰","id_card_no":"230208194210185705","phone":"14783875797"}</t>
+    <t>{"user_name":"文丽娟","id_card_no":"350481194505300729","phone":"15511733771"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"韩霞","id_card_no":"361028194904161091","phone":"13852489950"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"吴桂珍","id_card_no":"542128198109162288","phone":"13324103326"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"有雪梅","id_card_no":"431382195706294288","phone":"14598566990"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"亢红梅","id_card_no":"130429193606015272","phone":"13318427583"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"俞桂花","id_card_no":"654024194604107735","phone":"18236031810"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"归艳","id_card_no":"440281193601046368","phone":"14596635273"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"苍欣","id_card_no":"130503194905254608","phone":"18293957474"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"申林","id_card_no":"120225199005177363","phone":"13536458629"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"宫欣","id_card_no":"61102319680908770X","phone":"13541682593"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"倪桂珍","id_card_no":"511323197303271590","phone":"18177009506"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"左丹丹","id_card_no":"120000194410090025","phone":"14555632299"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"孙柳","id_card_no":"520321196106099940","phone":"15634185386"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"昌飞","id_card_no":"410523198709135418","phone":"15080912020"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"端秀华","id_card_no":"420205195305056798","phone":"18787973873"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"景磊","id_card_no":"610104195109243231","phone":"14529798893"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"亓兰英","id_card_no":"610801194408067287","phone":"15844997307"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"汲丽娟","id_card_no":"430901195111247558","phone":"15362215720"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"闫旭","id_card_no":"320508197106066310","phone":"14583346158"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"汪彬","id_card_no":"220182196409077029","phone":"13440301400"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"佴洁","id_card_no":"150303197801229041","phone":"18821191899"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"仰梅","id_card_no":"130824195812158660","phone":"18214262802"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"岑飞","id_card_no":"150403199207116815","phone":"13740596594"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"叶龙","id_card_no":"21012319330303464X","phone":"15378050324"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"丁峰","id_card_no":"610527197909177274","phone":"13461154860"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"钟海燕","id_card_no":"63010119421126133X","phone":"13594878803"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"双建平","id_card_no":"210201194511089807","phone":"14566105687"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"葛梅","id_card_no":"340803195110083614","phone":"15652633013"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"葛飞","id_card_no":"211281194904088402","phone":"14517218011"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"东欣","id_card_no":"450125198803137952","phone":"18566086502"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"许小红","id_card_no":"370125196611299886","phone":"15295060260"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"都丹","id_card_no":"410500195012080092","phone":"18958534702"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"骆荣","id_card_no":"510411193607031239","phone":"13860509404"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"干建平","id_card_no":"440404196411196893","phone":"15989423272"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"车刚","id_card_no":"350128199612294912","phone":"15613279098"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"皮玲","id_card_no":"441821194412032903","phone":"13205347266"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"和丽丽","id_card_no":"150422200011239826","phone":"14523832613"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"许坤","id_card_no":"340102193804073628","phone":"15730592104"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"宦雪梅","id_card_no":"430201195006118318","phone":"13338323818"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"桑红霞","id_card_no":"130604198702058199","phone":"13887490806"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"司雷","id_card_no":"511900196412163509","phone":"13820668740"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"年鹏","id_card_no":"130428196908043698","phone":"18157490265"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"焦博","id_card_no":"431381194809250359","phone":"13270824244"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"琴丽丽","id_card_no":"522631194201317872","phone":"18087341254"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"巴斌","id_card_no":"230500197301214283","phone":"18749223212"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"凌秀荣","id_card_no":"330206197001309956","phone":"18683557920"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"伊佳","id_card_no":"220622199507167129","phone":"18752778475"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"寇敏","id_card_no":"21080419370508813X","phone":"18256025316"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"毕荣","id_card_no":"370701193902142158","phone":"14752221593"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"温玉","id_card_no":"131182193807056499","phone":"13417885345"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"仉雷","id_card_no":"411001196607121011","phone":"18209724744"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"昌秀华","id_card_no":"451421193612308228","phone":"15574371455"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"双涛","id_card_no":"654226197910208478","phone":"18936667200"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"羊宇","id_card_no":"610924199906037534","phone":"15160100733"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"章文","id_card_no":"511801196007111757","phone":"15092091574"}</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1258,7 @@
         <v>184</v>
       </c>
       <c r="N2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1305,7 +1302,7 @@
         <v>184</v>
       </c>
       <c r="N3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1349,7 +1346,7 @@
         <v>184</v>
       </c>
       <c r="N4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1390,7 +1387,7 @@
         <v>184</v>
       </c>
       <c r="N5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1434,7 +1431,7 @@
         <v>184</v>
       </c>
       <c r="N6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1478,7 +1475,7 @@
         <v>184</v>
       </c>
       <c r="N7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1522,7 +1519,7 @@
         <v>184</v>
       </c>
       <c r="N8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1563,7 +1560,7 @@
         <v>184</v>
       </c>
       <c r="N9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1607,7 +1604,7 @@
         <v>184</v>
       </c>
       <c r="N10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1651,7 +1648,7 @@
         <v>184</v>
       </c>
       <c r="N11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1692,7 +1689,7 @@
         <v>184</v>
       </c>
       <c r="N12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1736,7 +1733,7 @@
         <v>184</v>
       </c>
       <c r="N13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1780,7 +1777,7 @@
         <v>184</v>
       </c>
       <c r="N14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1824,7 +1821,7 @@
         <v>184</v>
       </c>
       <c r="N15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1868,7 +1865,7 @@
         <v>184</v>
       </c>
       <c r="N16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1912,7 +1909,7 @@
         <v>184</v>
       </c>
       <c r="N17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1956,7 +1953,7 @@
         <v>184</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2000,7 +1997,7 @@
         <v>184</v>
       </c>
       <c r="N19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2044,7 +2041,7 @@
         <v>184</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2088,7 +2085,7 @@
         <v>184</v>
       </c>
       <c r="N21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2132,7 +2129,7 @@
         <v>184</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2176,7 +2173,7 @@
         <v>184</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2220,7 +2217,7 @@
         <v>184</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2264,7 +2261,7 @@
         <v>184</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2308,7 +2305,7 @@
         <v>184</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2352,7 +2349,7 @@
         <v>184</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2396,7 +2393,7 @@
         <v>184</v>
       </c>
       <c r="N28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2440,7 +2437,7 @@
         <v>184</v>
       </c>
       <c r="N29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2484,7 +2481,7 @@
         <v>184</v>
       </c>
       <c r="N30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2528,7 +2525,7 @@
         <v>184</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2572,7 +2569,7 @@
         <v>184</v>
       </c>
       <c r="N32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2616,7 +2613,7 @@
         <v>184</v>
       </c>
       <c r="N33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2660,7 +2657,7 @@
         <v>184</v>
       </c>
       <c r="N34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2704,7 +2701,7 @@
         <v>184</v>
       </c>
       <c r="N35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2748,7 +2745,7 @@
         <v>184</v>
       </c>
       <c r="N36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2792,7 +2789,7 @@
         <v>184</v>
       </c>
       <c r="N37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2836,7 +2833,7 @@
         <v>184</v>
       </c>
       <c r="N38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2880,7 +2877,7 @@
         <v>184</v>
       </c>
       <c r="N39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2924,7 +2921,7 @@
         <v>184</v>
       </c>
       <c r="N40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2968,7 +2965,7 @@
         <v>184</v>
       </c>
       <c r="N41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3012,7 +3009,7 @@
         <v>184</v>
       </c>
       <c r="N42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3056,7 +3053,7 @@
         <v>184</v>
       </c>
       <c r="N43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3100,7 +3097,7 @@
         <v>184</v>
       </c>
       <c r="N44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3144,7 +3141,7 @@
         <v>184</v>
       </c>
       <c r="N45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3188,7 +3185,7 @@
         <v>184</v>
       </c>
       <c r="N46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3232,7 +3229,7 @@
         <v>184</v>
       </c>
       <c r="N47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3276,7 +3273,7 @@
         <v>184</v>
       </c>
       <c r="N48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3320,7 +3317,7 @@
         <v>184</v>
       </c>
       <c r="N49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3364,7 +3361,7 @@
         <v>184</v>
       </c>
       <c r="N50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3408,7 +3405,7 @@
         <v>184</v>
       </c>
       <c r="N51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3452,7 +3449,7 @@
         <v>184</v>
       </c>
       <c r="N52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3496,7 +3493,7 @@
         <v>184</v>
       </c>
       <c r="N53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3540,7 +3537,7 @@
         <v>184</v>
       </c>
       <c r="N54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3584,7 +3581,7 @@
         <v>184</v>
       </c>
       <c r="N55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3625,10 +3622,10 @@
         <v>12</v>
       </c>
       <c r="M56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
